--- a/data/hotels_by_city/Dallas/Dallas_shard_614.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_614.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,802 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r573280949-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>55921</t>
+  </si>
+  <si>
+    <t>223637</t>
+  </si>
+  <si>
+    <t>573280949</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Friendly, Cheap and Not Worth It</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is very courteous.  Every phone call was handled well and questions answered in a very hospitable manner.  In addition, the staff is very hard working.  I saw the same staff working the front desk that also ran the breakfast area that also cleaned rooms.  Bottom line: the lack of staff has led to a value hotel which could be great to be a value hotel that feels cheap and worst of all, dirty. 
+The rooms are recently renovated. Bed is comfortable.  The carpet is new and furnishings are adequate.  It’s obvious the remodel did not include painting.  And the remodel did not include the bathrooms.  
+The bathrooms were not clean.  In fact, mold was present.  The toilet was not clean as there was a circle of grime in the toilet.  In addition, the shower did not drain well.  And this is true of many of the public areas.  
+We had family staying in other areas of the hotel.  Their assessment was consistent with ours.   A hotel doesn’t have to be fancy.  It doesn’t have to luxurious.  It MUST be clean.  
+While the remodel may have improved the hotel’s room appearance, the filth of the bathrooms and public areas means this hotel is not one in which we can stay again.  
+In addition, the hotel was not very accommodating in regards to our late check out request.  We asked for an hour and had to beg...The staff at this hotel is very courteous.  Every phone call was handled well and questions answered in a very hospitable manner.  In addition, the staff is very hard working.  I saw the same staff working the front desk that also ran the breakfast area that also cleaned rooms.  Bottom line: the lack of staff has led to a value hotel which could be great to be a value hotel that feels cheap and worst of all, dirty. The rooms are recently renovated. Bed is comfortable.  The carpet is new and furnishings are adequate.  It’s obvious the remodel did not include painting.  And the remodel did not include the bathrooms.  The bathrooms were not clean.  In fact, mold was present.  The toilet was not clean as there was a circle of grime in the toilet.  In addition, the shower did not drain well.  And this is true of many of the public areas.  We had family staying in other areas of the hotel.  Their assessment was consistent with ours.   A hotel doesn’t have to be fancy.  It doesn’t have to luxurious.  It MUST be clean.  While the remodel may have improved the hotel’s room appearance, the filth of the bathrooms and public areas means this hotel is not one in which we can stay again.  In addition, the hotel was not very accommodating in regards to our late check out request.  We asked for an hour and had to beg for 30 minutes.  I am certain it was due to the limited staff and their need to clean rooms.  Add staff and guests can be accommodated.My suggestion to potential guests; keep looking for another hotel.  My suggestion to the hotel; do a deep clean of your common, public areas and add more staff.  This will allow people to do a better job and for the cleanliness issue to be resolved.  I would encourage Choice Hotels to visit.  No way can this hotel meet your standards.  And so would encourage Trip Advisor to evaluate the other recommendations.  No way these other reviewers stayed at this hotel.  2 stars and that is only due to the nice but overworked staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is very courteous.  Every phone call was handled well and questions answered in a very hospitable manner.  In addition, the staff is very hard working.  I saw the same staff working the front desk that also ran the breakfast area that also cleaned rooms.  Bottom line: the lack of staff has led to a value hotel which could be great to be a value hotel that feels cheap and worst of all, dirty. 
+The rooms are recently renovated. Bed is comfortable.  The carpet is new and furnishings are adequate.  It’s obvious the remodel did not include painting.  And the remodel did not include the bathrooms.  
+The bathrooms were not clean.  In fact, mold was present.  The toilet was not clean as there was a circle of grime in the toilet.  In addition, the shower did not drain well.  And this is true of many of the public areas.  
+We had family staying in other areas of the hotel.  Their assessment was consistent with ours.   A hotel doesn’t have to be fancy.  It doesn’t have to luxurious.  It MUST be clean.  
+While the remodel may have improved the hotel’s room appearance, the filth of the bathrooms and public areas means this hotel is not one in which we can stay again.  
+In addition, the hotel was not very accommodating in regards to our late check out request.  We asked for an hour and had to beg...The staff at this hotel is very courteous.  Every phone call was handled well and questions answered in a very hospitable manner.  In addition, the staff is very hard working.  I saw the same staff working the front desk that also ran the breakfast area that also cleaned rooms.  Bottom line: the lack of staff has led to a value hotel which could be great to be a value hotel that feels cheap and worst of all, dirty. The rooms are recently renovated. Bed is comfortable.  The carpet is new and furnishings are adequate.  It’s obvious the remodel did not include painting.  And the remodel did not include the bathrooms.  The bathrooms were not clean.  In fact, mold was present.  The toilet was not clean as there was a circle of grime in the toilet.  In addition, the shower did not drain well.  And this is true of many of the public areas.  We had family staying in other areas of the hotel.  Their assessment was consistent with ours.   A hotel doesn’t have to be fancy.  It doesn’t have to luxurious.  It MUST be clean.  While the remodel may have improved the hotel’s room appearance, the filth of the bathrooms and public areas means this hotel is not one in which we can stay again.  In addition, the hotel was not very accommodating in regards to our late check out request.  We asked for an hour and had to beg for 30 minutes.  I am certain it was due to the limited staff and their need to clean rooms.  Add staff and guests can be accommodated.My suggestion to potential guests; keep looking for another hotel.  My suggestion to the hotel; do a deep clean of your common, public areas and add more staff.  This will allow people to do a better job and for the cleanliness issue to be resolved.  I would encourage Choice Hotels to visit.  No way can this hotel meet your standards.  And so would encourage Trip Advisor to evaluate the other recommendations.  No way these other reviewers stayed at this hotel.  2 stars and that is only due to the nice but overworked staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r566180211-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>566180211</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>We always stay here, last weekend we stayed with my family and we love this place They have a helpful staff,great breakfast and very clean room,good value We will definitely stay here in future Highly recommendable hotel in granbury MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>We always stay here, last weekend we stayed with my family and we love this place They have a helpful staff,great breakfast and very clean room,good value We will definitely stay here in future Highly recommendable hotel in granbury More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r551241809-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>551241809</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmas Vacation </t>
+  </si>
+  <si>
+    <t>Stayed at this hotel a couple of times. Nothing fancy. Good free breakfast. Room is old and dated.Patch work on the walls done on professional. But you get what you pay for. I don’t stay in the Room a lot anyway. Just to sleep. So if your looking for a cheap hotel and it’s clean but dated...this is itMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel a couple of times. Nothing fancy. Good free breakfast. Room is old and dated.Patch work on the walls done on professional. But you get what you pay for. I don’t stay in the Room a lot anyway. Just to sleep. So if your looking for a cheap hotel and it’s clean but dated...this is itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548252686-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>548252686</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Great price and friendly staff</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy! Staff welcomed me and assisted me with all of my needs. Breakfast was very good with eggs sausage and Texas shaped waffles for no additional charge! The room was clean and the bed was comfy with 5 awesome pillows!! The front desk and housekeeping went above and beyond to make my stay enjoyable!! Will come back to this hotel for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Check in was quick and easy! Staff welcomed me and assisted me with all of my needs. Breakfast was very good with eggs sausage and Texas shaped waffles for no additional charge! The room was clean and the bed was comfy with 5 awesome pillows!! The front desk and housekeeping went above and beyond to make my stay enjoyable!! Will come back to this hotel for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548214418-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>548214418</t>
+  </si>
+  <si>
+    <t>Nice affordable stay</t>
+  </si>
+  <si>
+    <t>This Quality Inn was a value. Updated room decor. It had a microwave, and refrigerator in the room. The staff was very  accommodating, especially Nacona. Room was clean and free of bugs and odors. Definitely staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This Quality Inn was a value. Updated room decor. It had a microwave, and refrigerator in the room. The staff was very  accommodating, especially Nacona. Room was clean and free of bugs and odors. Definitely staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548116609-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>548116609</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable stay</t>
+  </si>
+  <si>
+    <t>The room was clean and it gives aesthetic feeling.Breakfast provided by the hotel was good.The staff working at hotel were friendly and professional. Pool was clean for refreshments and facilities by hotel were really good. i would to stay at this place for my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean and it gives aesthetic feeling.Breakfast provided by the hotel was good.The staff working at hotel were friendly and professional. Pool was clean for refreshments and facilities by hotel were really good. i would to stay at this place for my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r539233834-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>539233834</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Looks great from the outside, then you step inside....</t>
+  </si>
+  <si>
+    <t>Arrived Saturday for a one night stay.  We checked in and went up to the room.  The stairwell up to the second floor is absolutely filthy.  Looks like it hasn't been vacuumed in at least a month.We walk into our room, the floor looks like it hasn't been vacuumed in a week.  The bathtub had a lot of hair leftover from the previous occupant.Called down to the desk, front desk clerk brings me a new key for a new room.  The new room is a smoking room.  I ask for another room, clerk asks why.  I said because it smells like smoke.  He replies, "it shouldn't, no one has stayed in there in a week."On to room number three.  We get in there, it has an ancient A/C unit and the adjuster for temperature doesn't work.  It's either low or high heat or A/C.  Bathroom has a shaving razor cap on the floor.  At this point I give up and deal with the room.  The bathroom door doesn't close since the door is coming off the hinge, the entire bathroom and room needs repainting - you can see the old paintless sections in the wall in the room and bathroom where old fixtures once were.Would not stay here again for the price I paid (~$85 after taxes).  I would not stay here again for free.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Arrived Saturday for a one night stay.  We checked in and went up to the room.  The stairwell up to the second floor is absolutely filthy.  Looks like it hasn't been vacuumed in at least a month.We walk into our room, the floor looks like it hasn't been vacuumed in a week.  The bathtub had a lot of hair leftover from the previous occupant.Called down to the desk, front desk clerk brings me a new key for a new room.  The new room is a smoking room.  I ask for another room, clerk asks why.  I said because it smells like smoke.  He replies, "it shouldn't, no one has stayed in there in a week."On to room number three.  We get in there, it has an ancient A/C unit and the adjuster for temperature doesn't work.  It's either low or high heat or A/C.  Bathroom has a shaving razor cap on the floor.  At this point I give up and deal with the room.  The bathroom door doesn't close since the door is coming off the hinge, the entire bathroom and room needs repainting - you can see the old paintless sections in the wall in the room and bathroom where old fixtures once were.Would not stay here again for the price I paid (~$85 after taxes).  I would not stay here again for free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r530505449-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>530505449</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Very good place to stay</t>
+  </si>
+  <si>
+    <t>My job takes me all over the country to work i have been here in granbury Texas two times now and stayed at the quality inn and suites here and for me I really injoy staying here the staff is great and the manager here is a really great guy and friendly and the rooms are very clean and nice free WiFi and a hot breakfast in the morning all in all I give the place and staff five stars it's a really great place to stay while your here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>My job takes me all over the country to work i have been here in granbury Texas two times now and stayed at the quality inn and suites here and for me I really injoy staying here the staff is great and the manager here is a really great guy and friendly and the rooms are very clean and nice free WiFi and a hot breakfast in the morning all in all I give the place and staff five stars it's a really great place to stay while your here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r525021585-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>525021585</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not stay here </t>
+  </si>
+  <si>
+    <t>This place is a dump. First off there was a bunch of hair in the bath tub which is disgusting. Bad smell through the room. The bed is very very uncomfortable. The rooms need to be updated. Oo and if you wanted to take a nice HOT shower after a long day you can forget that there was absolutely NO HOT water.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>This place is a dump. First off there was a bunch of hair in the bath tub which is disgusting. Bad smell through the room. The bed is very very uncomfortable. The rooms need to be updated. Oo and if you wanted to take a nice HOT shower after a long day you can forget that there was absolutely NO HOT water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r523013266-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>523013266</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Clean and spacious room; the suite had everything I needed. Good price for the fact that it was in a location where other hotels were going for $120 at the time of my stay. Breakfast was fulfilling and had what I needed to start the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Clean and spacious room; the suite had everything I needed. Good price for the fact that it was in a location where other hotels were going for $120 at the time of my stay. Breakfast was fulfilling and had what I needed to start the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r520070997-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>520070997</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Very kind staff</t>
+  </si>
+  <si>
+    <t>The best feature of this property is the staff, they are very friendly and willing to help. Nice lobby and swimming pool. Bedroom was clean and comfortable. The breakfast was delicious, we enjoyed the eggs in particular.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>The best feature of this property is the staff, they are very friendly and willing to help. Nice lobby and swimming pool. Bedroom was clean and comfortable. The breakfast was delicious, we enjoyed the eggs in particular.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r518911956-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>518911956</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>My 2 Cents</t>
+  </si>
+  <si>
+    <t>First off the service at check in, (Nacona) was very friendly helpful always had a smile on her face. The hotel industry needs more staff like her. All the employees here was friendly as well. Hotel is conveniently located by everything you might need.MoreShow less</t>
+  </si>
+  <si>
+    <t>sunnyday2009, Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>First off the service at check in, (Nacona) was very friendly helpful always had a smile on her face. The hotel industry needs more staff like her. All the employees here was friendly as well. Hotel is conveniently located by everything you might need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r500367428-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>500367428</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Ok but not great</t>
+  </si>
+  <si>
+    <t>Dated but not expensive.  Hilton there is better but this is one for the price.  Needs some upgrading, especially in the rooms.Need to clean the bathrooms better and could use a bit more TLC from the cleaning crew in the rooms.  You get what you pay for!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Dated but not expensive.  Hilton there is better but this is one for the price.  Needs some upgrading, especially in the rooms.Need to clean the bathrooms better and could use a bit more TLC from the cleaning crew in the rooms.  You get what you pay for!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r498560119-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>498560119</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Fair price and nice</t>
+  </si>
+  <si>
+    <t>Room was nice with fridge, microwave, coffee maker, etc.  Comfortable bed with SIX pillows with different choices of softness.  Clean bathroom.  Staff was very friendly. Didn't mind moderately loud AC noise because I was near the pool, and it was NICE and cool for a HOT July evening. This motel was one of the FEW in the area that did NOT double or moderately increase their price for summer travelers.  I am not there as a tourist but to see my Mother in a nursing facility.  Who wants to spend $100 and up just for a place to sleep???  Thanks for a motel with a price a retired senior citizen can afford.MoreShow less</t>
+  </si>
+  <si>
+    <t>Qualityinn S, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Room was nice with fridge, microwave, coffee maker, etc.  Comfortable bed with SIX pillows with different choices of softness.  Clean bathroom.  Staff was very friendly. Didn't mind moderately loud AC noise because I was near the pool, and it was NICE and cool for a HOT July evening. This motel was one of the FEW in the area that did NOT double or moderately increase their price for summer travelers.  I am not there as a tourist but to see my Mother in a nursing facility.  Who wants to spend $100 and up just for a place to sleep???  Thanks for a motel with a price a retired senior citizen can afford.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r482658924-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>482658924</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>This Place is a Dump</t>
+  </si>
+  <si>
+    <t>The room had a stale smell to it. There is no elevator nor stairs outside. Everything is a long walk to get to. I had absolutely no towels, hand towels, wash clothes and had to ask for them. The bathroom smelled like bad body odor. The toilet would not flush until my boyfriend fixed the chain in the tank...yuck! The breakfast was scrambled egg and sausage and was free. But you have to ask for foam cups, pepper, etc. Other people in there were having to ask for things as well. The dining room is crowded when there are people in there everyone was stepping all over each other. If this is the only hotel avail in Granbury, then I would just book a different weekend. I can say something positive about my stay and that is that I did not see any bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>The room had a stale smell to it. There is no elevator nor stairs outside. Everything is a long walk to get to. I had absolutely no towels, hand towels, wash clothes and had to ask for them. The bathroom smelled like bad body odor. The toilet would not flush until my boyfriend fixed the chain in the tank...yuck! The breakfast was scrambled egg and sausage and was free. But you have to ask for foam cups, pepper, etc. Other people in there were having to ask for things as well. The dining room is crowded when there are people in there everyone was stepping all over each other. If this is the only hotel avail in Granbury, then I would just book a different weekend. I can say something positive about my stay and that is that I did not see any bugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r461142003-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>461142003</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Great Place to stay at a reasonable price</t>
+  </si>
+  <si>
+    <t>We are always looking for a great place to spend a weekend away at a reasonable price.  We have found it at the Quality Inn in Granbury, TX.  Rooms are clean and well appointed and have now been equipped with new furnishings since our last stay.  The hotel has interior hallways and is away from any freeway noise.  The whirlpool room that we get has the best Jacuzzi in the area (great jets, right size and good water flow).  The staff is very attentive and friendly.  We have stayed there multiple times over the last several years and highly recommend it.  Also, some good restaurants and an Aldi right next door it you forget anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We are always looking for a great place to spend a weekend away at a reasonable price.  We have found it at the Quality Inn in Granbury, TX.  Rooms are clean and well appointed and have now been equipped with new furnishings since our last stay.  The hotel has interior hallways and is away from any freeway noise.  The whirlpool room that we get has the best Jacuzzi in the area (great jets, right size and good water flow).  The staff is very attentive and friendly.  We have stayed there multiple times over the last several years and highly recommend it.  Also, some good restaurants and an Aldi right next door it you forget anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r450547154-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>450547154</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Clean, nice breakfast but use the safe</t>
+  </si>
+  <si>
+    <t>The place was fine as far as the amenities go . Definitely looked like it could use a little love in the upkeep but fine for the money. The breakfast was good and included eggs and sausage each day along with juices and a waffle maker, cereals and assorted breads.We had the distinct feeling my wife's luggage had been gone through by the room service maid but we had taken anything of value and meds with us. I thought it was important to say something to the management but my wife didn't want anyone to lose a job so I figured I would mention it here for others to just be smart going forward.I'd still stay again but I would use the in-room safes if I had anything I was concerned about left behind while I was out.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>The place was fine as far as the amenities go . Definitely looked like it could use a little love in the upkeep but fine for the money. The breakfast was good and included eggs and sausage each day along with juices and a waffle maker, cereals and assorted breads.We had the distinct feeling my wife's luggage had been gone through by the room service maid but we had taken anything of value and meds with us. I thought it was important to say something to the management but my wife didn't want anyone to lose a job so I figured I would mention it here for others to just be smart going forward.I'd still stay again but I would use the in-room safes if I had anything I was concerned about left behind while I was out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r418419597-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>418419597</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>clean and friendly</t>
+  </si>
+  <si>
+    <t>We bought a house in town. We had to stay for 4 nights. We knew nothing about any of the hotels in the area. We usually like Quality Inns and Suites. This one however was nicer and friendlier then any we have stayed at. The room was clean, plenty of outlets for all our charging needs. big t.v, refrigerator was bigger then the mini ones you see. 24 hr. coffee in the lobby and coffee maker in the room. shower worked great. They have laundry room as well. The staff was wonderful! Sooo helpful for us trying to find carpet cleaners and stuff for the new house. And they actually care. next day they even asked if we found everything we needed. I recommend this hotel to anyone who wants to be able to relax in comfort with a staff that aims to please. thank you Quality Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We bought a house in town. We had to stay for 4 nights. We knew nothing about any of the hotels in the area. We usually like Quality Inns and Suites. This one however was nicer and friendlier then any we have stayed at. The room was clean, plenty of outlets for all our charging needs. big t.v, refrigerator was bigger then the mini ones you see. 24 hr. coffee in the lobby and coffee maker in the room. shower worked great. They have laundry room as well. The staff was wonderful! Sooo helpful for us trying to find carpet cleaners and stuff for the new house. And they actually care. next day they even asked if we found everything we needed. I recommend this hotel to anyone who wants to be able to relax in comfort with a staff that aims to please. thank you Quality Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r400635275-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>400635275</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>The room smelled and felt dirty. They had painted one wall of the room green but got paint on outlet covers and the carpet! Not very professionally done. You can tell they are starting upgrades but just pieces at a time. Food area was small and not much food.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>The room smelled and felt dirty. They had painted one wall of the room green but got paint on outlet covers and the carpet! Not very professionally done. You can tell they are starting upgrades but just pieces at a time. Food area was small and not much food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r397751245-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>397751245</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Comfy beds quiet room</t>
+  </si>
+  <si>
+    <t>We wanted a room in town so we wouldn't have to drive back to Arlington after the wine walk. It was comfy and clean, we slept well with no problems!Breakfast had a good variety of fruits so that was good! I would stay and recommend if.Safe and quiet area but NOT walking distance to downtown which was a disappointment!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We wanted a room in town so we wouldn't have to drive back to Arlington after the wine walk. It was comfy and clean, we slept well with no problems!Breakfast had a good variety of fruits so that was good! I would stay and recommend if.Safe and quiet area but NOT walking distance to downtown which was a disappointment!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r396037989-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>396037989</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Friendly and mostly accessible</t>
+  </si>
+  <si>
+    <t>One of the most accessible hotels in Granbury.  And reasonably priced. The staff have always been wonderful each time I have stayed there. And the accessible rooms are located right next to the lobby and breakfast area. They still haven't fixed the entry yet though.  It has a ramp and then a steep small incline as you get to the double doors. Makes it a little difficult to get in if you are in a wheelchair.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>One of the most accessible hotels in Granbury.  And reasonably priced. The staff have always been wonderful each time I have stayed there. And the accessible rooms are located right next to the lobby and breakfast area. They still haven't fixed the entry yet though.  It has a ramp and then a steep small incline as you get to the double doors. Makes it a little difficult to get in if you are in a wheelchair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r378467038-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>378467038</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Room ok, not very professionally run</t>
+  </si>
+  <si>
+    <t>The room was clean, good a/c. There were a few small items that could have been fixed like a piece of tub damage, a wall plug without a cover plate, a stained wash cloth.  What bothered us most was that the staff wasnt very professional. One front desk attendent had no teeth, smelled like smoke, &amp; said one curse word. Another also had to make the breakfast while attending the front desk . Another worker didnt bother to clean tables and food areas that needed a little attention. I would never deny children food, however, workers' children should be in a staff room not out in the public. They were well mannered children but they shouldnt have been sitting around with the public. Our room wasnt ready when we arrived though we arrived after check-in.  The hallway smelled strange. The definition of a "suite" turned out there to be a very small room. None of these annoyances in and of themselves were bad but as a whole added up to an unprofessioanlly run hotel.  We don't plan on staying at this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>The room was clean, good a/c. There were a few small items that could have been fixed like a piece of tub damage, a wall plug without a cover plate, a stained wash cloth.  What bothered us most was that the staff wasnt very professional. One front desk attendent had no teeth, smelled like smoke, &amp; said one curse word. Another also had to make the breakfast while attending the front desk . Another worker didnt bother to clean tables and food areas that needed a little attention. I would never deny children food, however, workers' children should be in a staff room not out in the public. They were well mannered children but they shouldnt have been sitting around with the public. Our room wasnt ready when we arrived though we arrived after check-in.  The hallway smelled strange. The definition of a "suite" turned out there to be a very small room. None of these annoyances in and of themselves were bad but as a whole added up to an unprofessioanlly run hotel.  We don't plan on staying at this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r371458041-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>371458041</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Our family has stayed here for an extended stay and we continue to return. Thank you!</t>
+  </si>
+  <si>
+    <t>My husband travels a lot for work. So finding a hotel, where the staff make up for any petty little thing that someone may nitpick about, is so much more important to me than looking for THE PERFECT place. We've stayed in many hotels over the years. But the management here, as well as the folks at the front desk, and even the housekeeping staff, go out of their way to help anytime we've needed it. They greet us by name and chit chat when things are slow. And if the toilet happens to need the attention of the maintenance man, or they don't have the milk out because you just missed breakfast, they're eager to help when we are in need. Thank you for always welcoming up back and going out of your way to make us feel as close to home as you can. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband travels a lot for work. So finding a hotel, where the staff make up for any petty little thing that someone may nitpick about, is so much more important to me than looking for THE PERFECT place. We've stayed in many hotels over the years. But the management here, as well as the folks at the front desk, and even the housekeeping staff, go out of their way to help anytime we've needed it. They greet us by name and chit chat when things are slow. And if the toilet happens to need the attention of the maintenance man, or they don't have the milk out because you just missed breakfast, they're eager to help when we are in need. Thank you for always welcoming up back and going out of your way to make us feel as close to home as you can. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r358183287-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>358183287</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>A Good Value!</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights here and was happy with the value for the quality.  The breakfasts are very good with hot items and lots of choice.  The beds are comfortable and I slept well.  The room was not as clean as I liked, but not grossly dirty either.  Carpets needed better vacuuming and there was a mild vinegar spell, probably from cleaning.  Also there was a stain on the couch and the bathtub could use some better cleaning as well.  The rooms are spacious and have a fridge, microwave, and adequate electrical outlets.  The desk staff was very friendly and helpful. You might not know it unless you see the sign by the common computer, but there is a free use of the YMCA across the street if you are staying here.  That makes it one of the best fitness center options  at a hotel.  WiFi was very good.  I was on the bottom floor and the noise from the room above was distracting at times.  The second story floors are not very thick or insulated.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights here and was happy with the value for the quality.  The breakfasts are very good with hot items and lots of choice.  The beds are comfortable and I slept well.  The room was not as clean as I liked, but not grossly dirty either.  Carpets needed better vacuuming and there was a mild vinegar spell, probably from cleaning.  Also there was a stain on the couch and the bathtub could use some better cleaning as well.  The rooms are spacious and have a fridge, microwave, and adequate electrical outlets.  The desk staff was very friendly and helpful. You might not know it unless you see the sign by the common computer, but there is a free use of the YMCA across the street if you are staying here.  That makes it one of the best fitness center options  at a hotel.  WiFi was very good.  I was on the bottom floor and the noise from the room above was distracting at times.  The second story floors are not very thick or insulated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r327960802-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>327960802</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>"Real Quality" Inn Suites</t>
+  </si>
+  <si>
+    <t>Coming all the way from Down Under to stay in this very well kept, friendly and very comfortable hotel just off the main road going through Granbury in Texas.The reception in the main foyer (or lobby as it's known Stateside) was pretty welcoming for about 12:00-1:00am local time.The room was pretty well done up and comfortable and quiet.Breakfast was well supplied and delicious.Every time we stepped out and came back, the staff would always say "Hi y'all."And also, I don't know his name, this bloke who is also a staff member, always talked with us always with a smile on his face.We were becoming accustomed with the local accent while they were interested in my Aussie accent (mate).We spent 3 nights there.Upon checking out, they were sorry to see us go.We really enjoyed our stay there and I highly recommend the Quality Inn Suites to anyone.Oh, a heads up (if it hasn't already happened), they were telling me that they were going to carry out renovating the hotel.I'm really interested in how it would look now and I hope the guy is still there.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Coming all the way from Down Under to stay in this very well kept, friendly and very comfortable hotel just off the main road going through Granbury in Texas.The reception in the main foyer (or lobby as it's known Stateside) was pretty welcoming for about 12:00-1:00am local time.The room was pretty well done up and comfortable and quiet.Breakfast was well supplied and delicious.Every time we stepped out and came back, the staff would always say "Hi y'all."And also, I don't know his name, this bloke who is also a staff member, always talked with us always with a smile on his face.We were becoming accustomed with the local accent while they were interested in my Aussie accent (mate).We spent 3 nights there.Upon checking out, they were sorry to see us go.We really enjoyed our stay there and I highly recommend the Quality Inn Suites to anyone.Oh, a heads up (if it hasn't already happened), they were telling me that they were going to carry out renovating the hotel.I'm really interested in how it would look now and I hope the guy is still there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r319654849-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>319654849</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Decent hotel for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall decent stay. Bathroom and shower were clean. Carpet, walls, bed could use some extra cleaning. Hotel was quiet and staff was very friendly. Location was close to Granbury attractions. I would stay here again. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r308797521-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>308797521</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>The Friendly Hotel on Thursday-Friday (August 27-28, 2015)</t>
+  </si>
+  <si>
+    <t>From the warm welcome at the front desk by Janet, who set us up with a perfect disability accessible room, to the housekeeper, Juanita, who welcomed us just as she was cleaning up the breakfast items to sit down and enjoy whatever we needed, to the General Manager, Shakil, who gave us much grace with our late departure after checkout time, we found our stay at this particular Quality Inn &amp; Suites to be a stay at The Friendly Hotel that really cares about people!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r294524047-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>294524047</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Quality Inn</t>
+  </si>
+  <si>
+    <t>We stayed there in July when the outside temp was at 100 degrees. The room air conditioner was always cold. They are painting and remodeling, but the room we were in was clean and comfortable. The staff was very friendly and helpful. The pool was small, but felt very good in the evening.With the key card, you could also visit the YMCA across the street, and use their pool and fitness center at no charge.The breakfast was very good, with scrambled eggs, sausage, waffles, fruit yogurt, rolls, muffins, juice, milk and coffee. The motel also allows pets. We had our small dog with us, and arranged to have her with us while they cleaned the room.Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We stayed there in July when the outside temp was at 100 degrees. The room air conditioner was always cold. They are painting and remodeling, but the room we were in was clean and comfortable. The staff was very friendly and helpful. The pool was small, but felt very good in the evening.With the key card, you could also visit the YMCA across the street, and use their pool and fitness center at no charge.The breakfast was very good, with scrambled eggs, sausage, waffles, fruit yogurt, rolls, muffins, juice, milk and coffee. The motel also allows pets. We had our small dog with us, and arranged to have her with us while they cleaned the room.Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r288908617-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>288908617</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Great Renovations Inside and Out!</t>
+  </si>
+  <si>
+    <t>Newly renovated and updated rooms. Stayed two different nights; in two different rooms, one double on second floor (they do not have an elevator but staff offered to carry luggage) and handicapped room on first floor. Breakfast was adequate. Superb, helpful staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r286915902-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>286915902</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Great place to watch the fireworks</t>
+  </si>
+  <si>
+    <t>We were working in Granbury for the Old fashioned 4th of July and we stayed at the Quality in the price was great and the beds comfortable, breakfast was marginal but the Eggs were fresh and good along with the coffee.  The hotel could use some updating and I would have been nice not to have to go get fresh towels but like I said for the price it was good. I wish they could have a more thorough crew but the front desk GIRLS were awesome. We were able to walk right out the front door and watch the awesome fireworks, so that was good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r263444727-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>263444727</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>The room was very nice and the beds were comfortable. The staff was also very helpful and sweet everybody told us happy anniversary the next morning,it was nice of them to remember! ! :) would recommend to anyone</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r258945548-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>258945548</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Snow day</t>
+  </si>
+  <si>
+    <t>Stayed here due to snow and having to be back at work the next day in Granbury. I was impressed with this hotel and the price they gave  me. Good breakfast. Had a hospice patient I was staying with and it was very important to get back there the next day! Thanks for providing me a nice place at a very reasonable price !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r258383946-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>258383946</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Nice, Clean and Friendly</t>
+  </si>
+  <si>
+    <t>We stayed here for a short anniversary trip. Great hospitality and super friendly staff. Moved us to a room that has a huge jacuzzi in the room! Great surprise! Very clean and basic. Everything we needed and nothing we didn't.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r248134316-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>248134316</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Not very high quality</t>
+  </si>
+  <si>
+    <t>The staff was friendly and hard working.  The room smelled very strongly of bleach (so much so that I was nauseated and had a headache in the middle of the night). Our room wasn't serviced the first day (but to be honest, we didn't leave it until 4pm).  The heater was not controllable since the knobs turned round and round. The bed was comfortable. Breakfast was pretty good although they ran out of plates and waffle batter. On leaving the room the last time the handle came off in my hand. At this point, it was comical.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r243478976-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>243478976</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Very Pleasant Place</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel twice now.  Both times the staff was friendly and very helpful.  Our room was very clean and well stocked.  The pool and fountain are very clean and relaxing.  Breakfast in the morning was hot and fresh!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>shakil h, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel twice now.  Both times the staff was friendly and very helpful.  Our room was very clean and well stocked.  The pool and fountain are very clean and relaxing.  Breakfast in the morning was hot and fresh!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r243183739-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>243183739</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Stay here</t>
+  </si>
+  <si>
+    <t>I Brought my high school basketball team to stay during a tournament.  Nice comfortable place to stay with really good free breakfast. There is a YMCA right across the street with a pool that can be used by hotel guests.  Hospitality was great! No complaints from me or any of my team!MoreShow less</t>
+  </si>
+  <si>
+    <t>QualityInnGranbury, Manager at Quality Inn &amp; Suites, responded to this reviewResponded December 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2014</t>
+  </si>
+  <si>
+    <t>I Brought my high school basketball team to stay during a tournament.  Nice comfortable place to stay with really good free breakfast. There is a YMCA right across the street with a pool that can be used by hotel guests.  Hospitality was great! No complaints from me or any of my team!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1441,2216 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>53</v>
+      </c>
+      <c r="X16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>53</v>
+      </c>
+      <c r="X17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>53</v>
+      </c>
+      <c r="X18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>53</v>
+      </c>
+      <c r="X19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>53</v>
+      </c>
+      <c r="X20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>53</v>
+      </c>
+      <c r="X21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>53</v>
+      </c>
+      <c r="X22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>243</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>255</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>272</v>
+      </c>
+      <c r="O34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>286</v>
+      </c>
+      <c r="L35" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>289</v>
+      </c>
+      <c r="J36" t="s">
+        <v>290</v>
+      </c>
+      <c r="K36" t="s">
+        <v>291</v>
+      </c>
+      <c r="L36" t="s">
+        <v>292</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>293</v>
+      </c>
+      <c r="O36" t="s">
+        <v>101</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>294</v>
+      </c>
+      <c r="X36" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" t="s">
+        <v>301</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>302</v>
+      </c>
+      <c r="X37" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_614.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_614.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>BobHog1</t>
   </si>
   <si>
     <t>06/16/2018</t>
@@ -196,6 +199,9 @@
 In addition, the hotel was not very accommodating in regards to our late check out request.  We asked for an hour and had to beg...The staff at this hotel is very courteous.  Every phone call was handled well and questions answered in a very hospitable manner.  In addition, the staff is very hard working.  I saw the same staff working the front desk that also ran the breakfast area that also cleaned rooms.  Bottom line: the lack of staff has led to a value hotel which could be great to be a value hotel that feels cheap and worst of all, dirty. The rooms are recently renovated. Bed is comfortable.  The carpet is new and furnishings are adequate.  It’s obvious the remodel did not include painting.  And the remodel did not include the bathrooms.  The bathrooms were not clean.  In fact, mold was present.  The toilet was not clean as there was a circle of grime in the toilet.  In addition, the shower did not drain well.  And this is true of many of the public areas.  We had family staying in other areas of the hotel.  Their assessment was consistent with ours.   A hotel doesn’t have to be fancy.  It doesn’t have to luxurious.  It MUST be clean.  While the remodel may have improved the hotel’s room appearance, the filth of the bathrooms and public areas means this hotel is not one in which we can stay again.  In addition, the hotel was not very accommodating in regards to our late check out request.  We asked for an hour and had to beg for 30 minutes.  I am certain it was due to the limited staff and their need to clean rooms.  Add staff and guests can be accommodated.My suggestion to potential guests; keep looking for another hotel.  My suggestion to the hotel; do a deep clean of your common, public areas and add more staff.  This will allow people to do a better job and for the cleanliness issue to be resolved.  I would encourage Choice Hotels to visit.  No way can this hotel meet your standards.  And so would encourage Trip Advisor to evaluate the other recommendations.  No way these other reviewers stayed at this hotel.  2 stars and that is only due to the nice but overworked staff.More</t>
   </si>
   <si>
+    <t>Angela W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r566180211-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t>We always stay here, last weekend we stayed with my family and we love this place They have a helpful staff,great breakfast and very clean room,good value We will definitely stay here in future Highly recommendable hotel in granbury More</t>
   </si>
   <si>
+    <t>Bobby B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r551241809-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -250,6 +259,9 @@
     <t>Stayed at this hotel a couple of times. Nothing fancy. Good free breakfast. Room is old and dated.Patch work on the walls done on professional. But you get what you pay for. I don’t stay in the Room a lot anyway. Just to sleep. So if your looking for a cheap hotel and it’s clean but dated...this is itMore</t>
   </si>
   <si>
+    <t>smbarnesrn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548252686-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -277,6 +289,9 @@
     <t>Check in was quick and easy! Staff welcomed me and assisted me with all of my needs. Breakfast was very good with eggs sausage and Texas shaped waffles for no additional charge! The room was clean and the bed was comfy with 5 awesome pillows!! The front desk and housekeeping went above and beyond to make my stay enjoyable!! Will come back to this hotel for sure!More</t>
   </si>
   <si>
+    <t>MARCUS B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548214418-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -295,6 +310,9 @@
     <t>This Quality Inn was a value. Updated room decor. It had a microwave, and refrigerator in the room. The staff was very  accommodating, especially Nacona. Room was clean and free of bugs and odors. Definitely staying here again!More</t>
   </si>
   <si>
+    <t>Shrey S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548116609-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -313,6 +331,9 @@
     <t>The room was clean and it gives aesthetic feeling.Breakfast provided by the hotel was good.The staff working at hotel were friendly and professional. Pool was clean for refreshments and facilities by hotel were really good. i would to stay at this place for my next visit.More</t>
   </si>
   <si>
+    <t>Paul W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r539233834-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -337,6 +358,9 @@
     <t>Arrived Saturday for a one night stay.  We checked in and went up to the room.  The stairwell up to the second floor is absolutely filthy.  Looks like it hasn't been vacuumed in at least a month.We walk into our room, the floor looks like it hasn't been vacuumed in a week.  The bathtub had a lot of hair leftover from the previous occupant.Called down to the desk, front desk clerk brings me a new key for a new room.  The new room is a smoking room.  I ask for another room, clerk asks why.  I said because it smells like smoke.  He replies, "it shouldn't, no one has stayed in there in a week."On to room number three.  We get in there, it has an ancient A/C unit and the adjuster for temperature doesn't work.  It's either low or high heat or A/C.  Bathroom has a shaving razor cap on the floor.  At this point I give up and deal with the room.  The bathroom door doesn't close since the door is coming off the hinge, the entire bathroom and room needs repainting - you can see the old paintless sections in the wall in the room and bathroom where old fixtures once were.Would not stay here again for the price I paid (~$85 after taxes).  I would not stay here again for free.More</t>
   </si>
   <si>
+    <t>freddyforrester</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r530505449-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -361,6 +385,9 @@
     <t>My job takes me all over the country to work i have been here in granbury Texas two times now and stayed at the quality inn and suites here and for me I really injoy staying here the staff is great and the manager here is a really great guy and friendly and the rooms are very clean and nice free WiFi and a hot breakfast in the morning all in all I give the place and staff five stars it's a really great place to stay while your here.More</t>
   </si>
   <si>
+    <t>Zack K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r525021585-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -388,6 +415,9 @@
     <t>This place is a dump. First off there was a bunch of hair in the bath tub which is disgusting. Bad smell through the room. The bed is very very uncomfortable. The rooms need to be updated. Oo and if you wanted to take a nice HOT shower after a long day you can forget that there was absolutely NO HOT water.More</t>
   </si>
   <si>
+    <t>itslingling</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r523013266-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -412,6 +442,9 @@
     <t>Clean and spacious room; the suite had everything I needed. Good price for the fact that it was in a location where other hotels were going for $120 at the time of my stay. Breakfast was fulfilling and had what I needed to start the day.More</t>
   </si>
   <si>
+    <t>Ceci B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r520070997-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -439,6 +472,9 @@
     <t>The best feature of this property is the staff, they are very friendly and willing to help. Nice lobby and swimming pool. Bedroom was clean and comfortable. The breakfast was delicious, we enjoyed the eggs in particular.More</t>
   </si>
   <si>
+    <t>Judy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r518911956-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -463,6 +499,9 @@
     <t>First off the service at check in, (Nacona) was very friendly helpful always had a smile on her face. The hotel industry needs more staff like her. All the employees here was friendly as well. Hotel is conveniently located by everything you might need.More</t>
   </si>
   <si>
+    <t>John D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r500367428-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -490,6 +529,9 @@
     <t>Dated but not expensive.  Hilton there is better but this is one for the price.  Needs some upgrading, especially in the rooms.Need to clean the bathrooms better and could use a bit more TLC from the cleaning crew in the rooms.  You get what you pay for!More</t>
   </si>
   <si>
+    <t>_msmauriann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r498560119-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -514,6 +556,9 @@
     <t>Room was nice with fridge, microwave, coffee maker, etc.  Comfortable bed with SIX pillows with different choices of softness.  Clean bathroom.  Staff was very friendly. Didn't mind moderately loud AC noise because I was near the pool, and it was NICE and cool for a HOT July evening. This motel was one of the FEW in the area that did NOT double or moderately increase their price for summer travelers.  I am not there as a tourist but to see my Mother in a nursing facility.  Who wants to spend $100 and up just for a place to sleep???  Thanks for a motel with a price a retired senior citizen can afford.More</t>
   </si>
   <si>
+    <t>Suzi E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r482658924-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -535,6 +580,9 @@
     <t>The room had a stale smell to it. There is no elevator nor stairs outside. Everything is a long walk to get to. I had absolutely no towels, hand towels, wash clothes and had to ask for them. The bathroom smelled like bad body odor. The toilet would not flush until my boyfriend fixed the chain in the tank...yuck! The breakfast was scrambled egg and sausage and was free. But you have to ask for foam cups, pepper, etc. Other people in there were having to ask for things as well. The dining room is crowded when there are people in there everyone was stepping all over each other. If this is the only hotel avail in Granbury, then I would just book a different weekend. I can say something positive about my stay and that is that I did not see any bugs.More</t>
   </si>
   <si>
+    <t>William L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r461142003-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -556,6 +604,9 @@
     <t>We are always looking for a great place to spend a weekend away at a reasonable price.  We have found it at the Quality Inn in Granbury, TX.  Rooms are clean and well appointed and have now been equipped with new furnishings since our last stay.  The hotel has interior hallways and is away from any freeway noise.  The whirlpool room that we get has the best Jacuzzi in the area (great jets, right size and good water flow).  The staff is very attentive and friendly.  We have stayed there multiple times over the last several years and highly recommend it.  Also, some good restaurants and an Aldi right next door it you forget anything.More</t>
   </si>
   <si>
+    <t>Jon_The_Handyman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r450547154-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -577,6 +628,9 @@
     <t>The place was fine as far as the amenities go . Definitely looked like it could use a little love in the upkeep but fine for the money. The breakfast was good and included eggs and sausage each day along with juices and a waffle maker, cereals and assorted breads.We had the distinct feeling my wife's luggage had been gone through by the room service maid but we had taken anything of value and meds with us. I thought it was important to say something to the management but my wife didn't want anyone to lose a job so I figured I would mention it here for others to just be smart going forward.I'd still stay again but I would use the in-room safes if I had anything I was concerned about left behind while I was out.More</t>
   </si>
   <si>
+    <t>Thomas K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r418419597-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -598,6 +652,9 @@
     <t>We bought a house in town. We had to stay for 4 nights. We knew nothing about any of the hotels in the area. We usually like Quality Inns and Suites. This one however was nicer and friendlier then any we have stayed at. The room was clean, plenty of outlets for all our charging needs. big t.v, refrigerator was bigger then the mini ones you see. 24 hr. coffee in the lobby and coffee maker in the room. shower worked great. They have laundry room as well. The staff was wonderful! Sooo helpful for us trying to find carpet cleaners and stuff for the new house. And they actually care. next day they even asked if we found everything we needed. I recommend this hotel to anyone who wants to be able to relax in comfort with a staff that aims to please. thank you Quality Inn!More</t>
   </si>
   <si>
+    <t>trima67030</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r400635275-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -619,6 +676,9 @@
     <t>The room smelled and felt dirty. They had painted one wall of the room green but got paint on outlet covers and the carpet! Not very professionally done. You can tell they are starting upgrades but just pieces at a time. Food area was small and not much food.More</t>
   </si>
   <si>
+    <t>heidi779704</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r397751245-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -640,6 +700,9 @@
     <t>We wanted a room in town so we wouldn't have to drive back to Arlington after the wine walk. It was comfy and clean, we slept well with no problems!Breakfast had a good variety of fruits so that was good! I would stay and recommend if.Safe and quiet area but NOT walking distance to downtown which was a disappointment!More</t>
   </si>
   <si>
+    <t>Christina J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r396037989-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -661,6 +724,9 @@
     <t>One of the most accessible hotels in Granbury.  And reasonably priced. The staff have always been wonderful each time I have stayed there. And the accessible rooms are located right next to the lobby and breakfast area. They still haven't fixed the entry yet though.  It has a ramp and then a steep small incline as you get to the double doors. Makes it a little difficult to get in if you are in a wheelchair.More</t>
   </si>
   <si>
+    <t>Leslie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r378467038-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -682,6 +748,9 @@
     <t>The room was clean, good a/c. There were a few small items that could have been fixed like a piece of tub damage, a wall plug without a cover plate, a stained wash cloth.  What bothered us most was that the staff wasnt very professional. One front desk attendent had no teeth, smelled like smoke, &amp; said one curse word. Another also had to make the breakfast while attending the front desk . Another worker didnt bother to clean tables and food areas that needed a little attention. I would never deny children food, however, workers' children should be in a staff room not out in the public. They were well mannered children but they shouldnt have been sitting around with the public. Our room wasnt ready when we arrived though we arrived after check-in.  The hallway smelled strange. The definition of a "suite" turned out there to be a very small room. None of these annoyances in and of themselves were bad but as a whole added up to an unprofessioanlly run hotel.  We don't plan on staying at this hotel in the future.More</t>
   </si>
   <si>
+    <t>calgontakemeaway2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r371458041-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -700,6 +769,9 @@
     <t>My husband travels a lot for work. So finding a hotel, where the staff make up for any petty little thing that someone may nitpick about, is so much more important to me than looking for THE PERFECT place. We've stayed in many hotels over the years. But the management here, as well as the folks at the front desk, and even the housekeeping staff, go out of their way to help anytime we've needed it. They greet us by name and chit chat when things are slow. And if the toilet happens to need the attention of the maintenance man, or they don't have the milk out because you just missed breakfast, they're eager to help when we are in need. Thank you for always welcoming up back and going out of your way to make us feel as close to home as you can. More</t>
   </si>
   <si>
+    <t>Timothy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r358183287-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -721,6 +793,9 @@
     <t>I stayed 3 nights here and was happy with the value for the quality.  The breakfasts are very good with hot items and lots of choice.  The beds are comfortable and I slept well.  The room was not as clean as I liked, but not grossly dirty either.  Carpets needed better vacuuming and there was a mild vinegar spell, probably from cleaning.  Also there was a stain on the couch and the bathtub could use some better cleaning as well.  The rooms are spacious and have a fridge, microwave, and adequate electrical outlets.  The desk staff was very friendly and helpful. You might not know it unless you see the sign by the common computer, but there is a free use of the YMCA across the street if you are staying here.  That makes it one of the best fitness center options  at a hotel.  WiFi was very good.  I was on the bottom floor and the noise from the room above was distracting at times.  The second story floors are not very thick or insulated.More</t>
   </si>
   <si>
+    <t>daderic888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r327960802-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -742,6 +817,9 @@
     <t>Coming all the way from Down Under to stay in this very well kept, friendly and very comfortable hotel just off the main road going through Granbury in Texas.The reception in the main foyer (or lobby as it's known Stateside) was pretty welcoming for about 12:00-1:00am local time.The room was pretty well done up and comfortable and quiet.Breakfast was well supplied and delicious.Every time we stepped out and came back, the staff would always say "Hi y'all."And also, I don't know his name, this bloke who is also a staff member, always talked with us always with a smile on his face.We were becoming accustomed with the local accent while they were interested in my Aussie accent (mate).We spent 3 nights there.Upon checking out, they were sorry to see us go.We really enjoyed our stay there and I highly recommend the Quality Inn Suites to anyone.Oh, a heads up (if it hasn't already happened), they were telling me that they were going to carry out renovating the hotel.I'm really interested in how it would look now and I hope the guy is still there.More</t>
   </si>
   <si>
+    <t>Ryan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r319654849-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -760,6 +838,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Thomas B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r308797521-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -778,6 +859,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>TexasSarge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r294524047-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -799,6 +883,9 @@
     <t>We stayed there in July when the outside temp was at 100 degrees. The room air conditioner was always cold. They are painting and remodeling, but the room we were in was clean and comfortable. The staff was very friendly and helpful. The pool was small, but felt very good in the evening.With the key card, you could also visit the YMCA across the street, and use their pool and fitness center at no charge.The breakfast was very good, with scrambled eggs, sausage, waffles, fruit yogurt, rolls, muffins, juice, milk and coffee. The motel also allows pets. We had our small dog with us, and arranged to have her with us while they cleaned the room.Would stay here again.More</t>
   </si>
   <si>
+    <t>dawnbT7548OO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r288908617-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -814,6 +901,9 @@
     <t>Newly renovated and updated rooms. Stayed two different nights; in two different rooms, one double on second floor (they do not have an elevator but staff offered to carry luggage) and handicapped room on first floor. Breakfast was adequate. Superb, helpful staff.</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r286915902-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -829,6 +919,9 @@
     <t>We were working in Granbury for the Old fashioned 4th of July and we stayed at the Quality in the price was great and the beds comfortable, breakfast was marginal but the Eggs were fresh and good along with the coffee.  The hotel could use some updating and I would have been nice not to have to go get fresh towels but like I said for the price it was good. I wish they could have a more thorough crew but the front desk GIRLS were awesome. We were able to walk right out the front door and watch the awesome fireworks, so that was good.</t>
   </si>
   <si>
+    <t>jditmore15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r263444727-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -847,6 +940,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>dRicheyJune2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r258945548-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -862,6 +958,9 @@
     <t>Stayed here due to snow and having to be back at work the next day in Granbury. I was impressed with this hotel and the price they gave  me. Good breakfast. Had a hospice patient I was staying with and it was very important to get back there the next day! Thanks for providing me a nice place at a very reasonable price !</t>
   </si>
   <si>
+    <t>Amy-Stephen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r258383946-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -877,6 +976,9 @@
     <t>We stayed here for a short anniversary trip. Great hospitality and super friendly staff. Moved us to a room that has a huge jacuzzi in the room! Great surprise! Very clean and basic. Everything we needed and nothing we didn't.</t>
   </si>
   <si>
+    <t>Brenda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r248134316-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -892,6 +994,9 @@
     <t>The staff was friendly and hard working.  The room smelled very strongly of bleach (so much so that I was nauseated and had a headache in the middle of the night). Our room wasn't serviced the first day (but to be honest, we didn't leave it until 4pm).  The heater was not controllable since the knobs turned round and round. The bed was comfortable. Breakfast was pretty good although they ran out of plates and waffle batter. On leaving the room the last time the handle came off in my hand. At this point, it was comical.</t>
   </si>
   <si>
+    <t>Lori T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r243478976-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1022,9 @@
   </si>
   <si>
     <t>I have stayed at this hotel twice now.  Both times the staff was friendly and very helpful.  Our room was very clean and well stocked.  The pool and fountain are very clean and relaxing.  Breakfast in the morning was hot and fresh!More</t>
+  </si>
+  <si>
+    <t>Desiree K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r243183739-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -1445,43 +1553,47 @@
       <c r="A2" t="n">
         <v>39754</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>173918</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1493,56 +1605,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39754</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1554,56 +1670,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39754</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>70507</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1615,56 +1735,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39754</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>173919</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1676,56 +1800,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39754</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>173920</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1737,56 +1865,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39754</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>173921</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1802,56 +1934,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39754</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>619</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1863,56 +1999,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39754</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>173922</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1924,56 +2064,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39754</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>173923</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1985,56 +2129,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39754</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>173924</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2046,56 +2194,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39754</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>173925</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2111,56 +2263,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39754</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2176,56 +2332,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39754</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>507</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2237,56 +2397,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39754</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>173926</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2302,56 +2466,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39754</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>173927</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2369,56 +2537,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39754</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>6532</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2436,56 +2608,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39754</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>173928</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2497,56 +2673,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39754</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>7184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2562,56 +2742,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39754</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>173929</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2623,56 +2807,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39754</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>173930</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2684,56 +2872,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39754</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>38759</v>
+      </c>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2745,56 +2937,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39754</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>19398</v>
+      </c>
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2808,41 +3004,45 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39754</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>173931</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
@@ -2861,50 +3061,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39754</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>20777</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="O25" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -2924,50 +3128,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39754</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>173932</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2981,50 +3189,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39754</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>47883</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3038,50 +3250,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39754</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>2253</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3101,50 +3317,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39754</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>173933</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3162,50 +3382,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39754</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>173934</v>
+      </c>
+      <c r="C30" t="s">
+        <v>285</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="J30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3225,50 +3449,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39754</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C31" t="s">
+        <v>291</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3288,50 +3516,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39754</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>173935</v>
+      </c>
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="J32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O32" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3345,50 +3577,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39754</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>173936</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="J33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3402,50 +3638,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39754</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>173937</v>
+      </c>
+      <c r="C34" t="s">
+        <v>310</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="O34" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3459,50 +3699,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39754</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>173938</v>
+      </c>
+      <c r="C35" t="s">
+        <v>316</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -3520,50 +3764,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39754</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>9001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3581,56 +3829,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39754</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>173939</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3642,13 +3894,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="X37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="Y37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_614.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_614.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="473">
   <si>
     <t>STR#</t>
   </si>
@@ -147,19 +147,100 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>BobHog1</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r588553424-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>55921</t>
+  </si>
+  <si>
+    <t>223637</t>
+  </si>
+  <si>
+    <t>588553424</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Our stay was enjoyable,great location, room and hotel was clean, pool was very pleasant with a nice sitting area.Great hospitality, very helpful staff, morning breakfast was good with many options.I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Our stay was enjoyable,great location, room and hotel was clean, pool was very pleasant with a nice sitting area.Great hospitality, very helpful staff, morning breakfast was good with many options.I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r586296416-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>586296416</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoke, no food, disappointing </t>
+  </si>
+  <si>
+    <t>I don’t mind inexpensive hotels except for when most of the rooms on the floor are smoking rooms and yours is not. The breakfast buffet was out of almost everything before 8 AM. Very few healthy options except fat, sugar, and bleached flour. If you don’t mind carpet fresh plug-ins and artificial scents to cover smoke smell you may not mind. Bed was acceptable. Air conditioning worked well. Pool was pretty nice and stayed open late. We had to climb stairs as there was no elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>I don’t mind inexpensive hotels except for when most of the rooms on the floor are smoking rooms and yours is not. The breakfast buffet was out of almost everything before 8 AM. Very few healthy options except fat, sugar, and bleached flour. If you don’t mind carpet fresh plug-ins and artificial scents to cover smoke smell you may not mind. Bed was acceptable. Air conditioning worked well. Pool was pretty nice and stayed open late. We had to climb stairs as there was no elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r582282367-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>582282367</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>No elevator</t>
+  </si>
+  <si>
+    <t>The entire hotel smells of cigarettes. There is no elevator to get to the 2nd floor. That may not be an issue for some but I wasn’t aware and it made things difficult. Our ac was turned off while we were gone.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2018</t>
+  </si>
+  <si>
+    <t>The entire hotel smells of cigarettes. There is no elevator to get to the 2nd floor. That may not be an issue for some but I wasn’t aware and it made things difficult. Our ac was turned off while we were gone.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r573280949-Quality_Inn_Suites-Granbury_Texas.html</t>
-  </si>
-  <si>
-    <t>55921</t>
-  </si>
-  <si>
-    <t>223637</t>
   </si>
   <si>
     <t>573280949</t>
@@ -182,9 +263,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Nerissa M, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded April 28, 2018</t>
   </si>
   <si>
@@ -199,9 +277,6 @@
 In addition, the hotel was not very accommodating in regards to our late check out request.  We asked for an hour and had to beg...The staff at this hotel is very courteous.  Every phone call was handled well and questions answered in a very hospitable manner.  In addition, the staff is very hard working.  I saw the same staff working the front desk that also ran the breakfast area that also cleaned rooms.  Bottom line: the lack of staff has led to a value hotel which could be great to be a value hotel that feels cheap and worst of all, dirty. The rooms are recently renovated. Bed is comfortable.  The carpet is new and furnishings are adequate.  It’s obvious the remodel did not include painting.  And the remodel did not include the bathrooms.  The bathrooms were not clean.  In fact, mold was present.  The toilet was not clean as there was a circle of grime in the toilet.  In addition, the shower did not drain well.  And this is true of many of the public areas.  We had family staying in other areas of the hotel.  Their assessment was consistent with ours.   A hotel doesn’t have to be fancy.  It doesn’t have to luxurious.  It MUST be clean.  While the remodel may have improved the hotel’s room appearance, the filth of the bathrooms and public areas means this hotel is not one in which we can stay again.  In addition, the hotel was not very accommodating in regards to our late check out request.  We asked for an hour and had to beg for 30 minutes.  I am certain it was due to the limited staff and their need to clean rooms.  Add staff and guests can be accommodated.My suggestion to potential guests; keep looking for another hotel.  My suggestion to the hotel; do a deep clean of your common, public areas and add more staff.  This will allow people to do a better job and for the cleanliness issue to be resolved.  I would encourage Choice Hotels to visit.  No way can this hotel meet your standards.  And so would encourage Trip Advisor to evaluate the other recommendations.  No way these other reviewers stayed at this hotel.  2 stars and that is only due to the nice but overworked staff.More</t>
   </si>
   <si>
-    <t>Angela W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r566180211-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -229,9 +304,6 @@
     <t>We always stay here, last weekend we stayed with my family and we love this place They have a helpful staff,great breakfast and very clean room,good value We will definitely stay here in future Highly recommendable hotel in granbury More</t>
   </si>
   <si>
-    <t>Bobby B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r551241809-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -259,7 +331,46 @@
     <t>Stayed at this hotel a couple of times. Nothing fancy. Good free breakfast. Room is old and dated.Patch work on the walls done on professional. But you get what you pay for. I don’t stay in the Room a lot anyway. Just to sleep. So if your looking for a cheap hotel and it’s clean but dated...this is itMore</t>
   </si>
   <si>
-    <t>smbarnesrn</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548781207-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>548781207</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Would not recommend, states two nights</t>
+  </si>
+  <si>
+    <t>The man at the desk was very nice and friendly, a man of Indian descent. Our suite was roomy and the temperature was comfortable. The television was perfectly fine, no problem. The tub had no stopper. I reported it and they brought one immediately. However, the water was only lukewarm so I didn't get a long soaking bath. The mattress was more firm than most Choice properties. This is an old hotel that has been poorly renovated.MoreShow less</t>
+  </si>
+  <si>
+    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2017</t>
+  </si>
+  <si>
+    <t>The man at the desk was very nice and friendly, a man of Indian descent. Our suite was roomy and the temperature was comfortable. The television was perfectly fine, no problem. The tub had no stopper. I reported it and they brought one immediately. However, the water was only lukewarm so I didn't get a long soaking bath. The mattress was more firm than most Choice properties. This is an old hotel that has been poorly renovated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548257566-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>548257566</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome place!! </t>
+  </si>
+  <si>
+    <t>Nice clean hotel with friendly staff! Check in was quick and easy. Free breakfast was hot and fresh! Eggs sauce biscuis and gravy and not to mention Texas shaped waffles were too cute!! I will stay here again for sure! MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice clean hotel with friendly staff! Check in was quick and easy. Free breakfast was hot and fresh! Eggs sauce biscuis and gravy and not to mention Texas shaped waffles were too cute!! I will stay here again for sure! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548252686-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -268,9 +379,6 @@
     <t>548252686</t>
   </si>
   <si>
-    <t>12/20/2017</t>
-  </si>
-  <si>
     <t>Great price and friendly staff</t>
   </si>
   <si>
@@ -280,18 +388,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded December 24, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 24, 2017</t>
-  </si>
-  <si>
     <t>Check in was quick and easy! Staff welcomed me and assisted me with all of my needs. Breakfast was very good with eggs sausage and Texas shaped waffles for no additional charge! The room was clean and the bed was comfy with 5 awesome pillows!! The front desk and housekeeping went above and beyond to make my stay enjoyable!! Will come back to this hotel for sure!More</t>
   </si>
   <si>
-    <t>MARCUS B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548214418-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -304,15 +403,9 @@
     <t>This Quality Inn was a value. Updated room decor. It had a microwave, and refrigerator in the room. The staff was very  accommodating, especially Nacona. Room was clean and free of bugs and odors. Definitely staying here again!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>This Quality Inn was a value. Updated room decor. It had a microwave, and refrigerator in the room. The staff was very  accommodating, especially Nacona. Room was clean and free of bugs and odors. Definitely staying here again!More</t>
   </si>
   <si>
-    <t>Shrey S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r548116609-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -331,7 +424,43 @@
     <t>The room was clean and it gives aesthetic feeling.Breakfast provided by the hotel was good.The staff working at hotel were friendly and professional. Pool was clean for refreshments and facilities by hotel were really good. i would to stay at this place for my next visit.More</t>
   </si>
   <si>
-    <t>Paul W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r547412944-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>547412944</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>Bed was so comfortable. Breakfast had very good meal. Staff was so helpful and kind.Cheapest rate and worth to stay there!!! Love that stay. I would definitely prefer to go there again and suggest to all to go there and take experience!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Bed was so comfortable. Breakfast had very good meal. Staff was so helpful and kind.Cheapest rate and worth to stay there!!! Love that stay. I would definitely prefer to go there again and suggest to all to go there and take experience!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r547190430-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>547190430</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place </t>
+  </si>
+  <si>
+    <t>Nice place clean extremely friendly staff good breakfast convenient to all I would recommend this establishment to anyone who staying in GranberryOverall it was a good stay thanks once again  the Bodes MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice place clean extremely friendly staff good breakfast convenient to all I would recommend this establishment to anyone who staying in GranberryOverall it was a good stay thanks once again  the Bodes More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r539233834-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -352,15 +481,9 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Arrived Saturday for a one night stay.  We checked in and went up to the room.  The stairwell up to the second floor is absolutely filthy.  Looks like it hasn't been vacuumed in at least a month.We walk into our room, the floor looks like it hasn't been vacuumed in a week.  The bathtub had a lot of hair leftover from the previous occupant.Called down to the desk, front desk clerk brings me a new key for a new room.  The new room is a smoking room.  I ask for another room, clerk asks why.  I said because it smells like smoke.  He replies, "it shouldn't, no one has stayed in there in a week."On to room number three.  We get in there, it has an ancient A/C unit and the adjuster for temperature doesn't work.  It's either low or high heat or A/C.  Bathroom has a shaving razor cap on the floor.  At this point I give up and deal with the room.  The bathroom door doesn't close since the door is coming off the hinge, the entire bathroom and room needs repainting - you can see the old paintless sections in the wall in the room and bathroom where old fixtures once were.Would not stay here again for the price I paid (~$85 after taxes).  I would not stay here again for free.More</t>
   </si>
   <si>
-    <t>freddyforrester</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r530505449-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -385,9 +508,6 @@
     <t>My job takes me all over the country to work i have been here in granbury Texas two times now and stayed at the quality inn and suites here and for me I really injoy staying here the staff is great and the manager here is a really great guy and friendly and the rooms are very clean and nice free WiFi and a hot breakfast in the morning all in all I give the place and staff five stars it's a really great place to stay while your here.More</t>
   </si>
   <si>
-    <t>Zack K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r525021585-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -415,7 +535,46 @@
     <t>This place is a dump. First off there was a bunch of hair in the bath tub which is disgusting. Bad smell through the room. The bed is very very uncomfortable. The rooms need to be updated. Oo and if you wanted to take a nice HOT shower after a long day you can forget that there was absolutely NO HOT water.More</t>
   </si>
   <si>
-    <t>itslingling</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r523820177-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>523820177</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>A pleasant stay</t>
+  </si>
+  <si>
+    <t>Staff was very nice and courteous, especially Nacona, who was always friendly with a smile on her face. It’s nice to have knowledgeable, pleasant staff taking care of any questions or needs that we hadMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Staff was very nice and courteous, especially Nacona, who was always friendly with a smile on her face. It’s nice to have knowledgeable, pleasant staff taking care of any questions or needs that we hadMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r523747864-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>523747864</t>
+  </si>
+  <si>
+    <t>Sweet Home Alabama Feeling.</t>
+  </si>
+  <si>
+    <t>Greatest staff lakona, staice, janet, and many others I don't no their names, they make you feel at home are always willing to help you and go outta their way to make sure your stay is rememberable, rooms are great look very nice tv great and free WiFi and continental breakfast is great, I love this hotel it's the best. MoreShow less</t>
+  </si>
+  <si>
+    <t>Greatest staff lakona, staice, janet, and many others I don't no their names, they make you feel at home are always willing to help you and go outta their way to make sure your stay is rememberable, rooms are great look very nice tv great and free WiFi and continental breakfast is great, I love this hotel it's the best. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r523013266-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -442,9 +601,6 @@
     <t>Clean and spacious room; the suite had everything I needed. Good price for the fact that it was in a location where other hotels were going for $120 at the time of my stay. Breakfast was fulfilling and had what I needed to start the day.More</t>
   </si>
   <si>
-    <t>Ceci B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r520070997-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -460,9 +616,6 @@
     <t>The best feature of this property is the staff, they are very friendly and willing to help. Nice lobby and swimming pool. Bedroom was clean and comfortable. The breakfast was delicious, we enjoyed the eggs in particular.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded September 1, 2017</t>
   </si>
   <si>
@@ -472,9 +625,6 @@
     <t>The best feature of this property is the staff, they are very friendly and willing to help. Nice lobby and swimming pool. Bedroom was clean and comfortable. The breakfast was delicious, we enjoyed the eggs in particular.More</t>
   </si>
   <si>
-    <t>Judy K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r518911956-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -499,7 +649,46 @@
     <t>First off the service at check in, (Nacona) was very friendly helpful always had a smile on her face. The hotel industry needs more staff like her. All the employees here was friendly as well. Hotel is conveniently located by everything you might need.More</t>
   </si>
   <si>
-    <t>John D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r516063337-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>516063337</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff</t>
+  </si>
+  <si>
+    <t>We stayed here during a road trip through granbury. We found the hotel a good value and really enjoyed meeting the staff. JD at the front desk was very helpful and friendly. Can recommend staying here safe and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Qualityinn S, Manager at Quality Inn &amp; Suites, responded to this reviewResponded August 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here during a road trip through granbury. We found the hotel a good value and really enjoyed meeting the staff. JD at the front desk was very helpful and friendly. Can recommend staying here safe and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r513129866-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>513129866</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>We booked two rooms, both were ready, clean, a. C. On. The staff is very nice and helpful, the breakfast is very good, they had fruit, waffles, eggs, sausage, bread, muffins and.... I would recommend this place strongly!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked two rooms, both were ready, clean, a. C. On. The staff is very nice and helpful, the breakfast is very good, they had fruit, waffles, eggs, sausage, bread, muffins and.... I would recommend this place strongly!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r500367428-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -529,9 +718,6 @@
     <t>Dated but not expensive.  Hilton there is better but this is one for the price.  Needs some upgrading, especially in the rooms.Need to clean the bathrooms better and could use a bit more TLC from the cleaning crew in the rooms.  You get what you pay for!More</t>
   </si>
   <si>
-    <t>_msmauriann</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r498560119-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -556,9 +742,6 @@
     <t>Room was nice with fridge, microwave, coffee maker, etc.  Comfortable bed with SIX pillows with different choices of softness.  Clean bathroom.  Staff was very friendly. Didn't mind moderately loud AC noise because I was near the pool, and it was NICE and cool for a HOT July evening. This motel was one of the FEW in the area that did NOT double or moderately increase their price for summer travelers.  I am not there as a tourist but to see my Mother in a nursing facility.  Who wants to spend $100 and up just for a place to sleep???  Thanks for a motel with a price a retired senior citizen can afford.More</t>
   </si>
   <si>
-    <t>Suzi E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r482658924-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -580,7 +763,43 @@
     <t>The room had a stale smell to it. There is no elevator nor stairs outside. Everything is a long walk to get to. I had absolutely no towels, hand towels, wash clothes and had to ask for them. The bathroom smelled like bad body odor. The toilet would not flush until my boyfriend fixed the chain in the tank...yuck! The breakfast was scrambled egg and sausage and was free. But you have to ask for foam cups, pepper, etc. Other people in there were having to ask for things as well. The dining room is crowded when there are people in there everyone was stepping all over each other. If this is the only hotel avail in Granbury, then I would just book a different weekend. I can say something positive about my stay and that is that I did not see any bugs.More</t>
   </si>
   <si>
-    <t>William L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r471674208-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>471674208</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Poor Quality</t>
+  </si>
+  <si>
+    <t>This is not a good place to stay.  It's dirty, smells like smoke, no elevator and very out dated.Even though they offer smoking and non-smoking rooms, even the non-smoking rooms have a very stale smell!!  No elevator and so stairs are only at each end of the hallway....so if your room is in the middle.....very long walk every time you go anywhere.  Ice machine on second floor wasn't working and had to walk downstairs for ice.  I ended up not staying and canceled my reservation after being in the hotel for only about 30 minutes.They are supposedly renovating, but they need to do a LOT more to make it better.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This is not a good place to stay.  It's dirty, smells like smoke, no elevator and very out dated.Even though they offer smoking and non-smoking rooms, even the non-smoking rooms have a very stale smell!!  No elevator and so stairs are only at each end of the hallway....so if your room is in the middle.....very long walk every time you go anywhere.  Ice machine on second floor wasn't working and had to walk downstairs for ice.  I ended up not staying and canceled my reservation after being in the hotel for only about 30 minutes.They are supposedly renovating, but they need to do a LOT more to make it better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r467948484-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>467948484</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovely service </t>
+  </si>
+  <si>
+    <t>We were little worried when we reserved a room at Quality Inn because of some negative reviews. But we were surprised. Hotel exceeded our expectation. Room was updated and clean.Service was lovely. Front desk lady was friendly. But only bad side, We could not use pool. Because it was outdoor pool and cold.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were little worried when we reserved a room at Quality Inn because of some negative reviews. But we were surprised. Hotel exceeded our expectation. Room was updated and clean.Service was lovely. Front desk lady was friendly. But only bad side, We could not use pool. Because it was outdoor pool and cold.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r461142003-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -604,9 +823,6 @@
     <t>We are always looking for a great place to spend a weekend away at a reasonable price.  We have found it at the Quality Inn in Granbury, TX.  Rooms are clean and well appointed and have now been equipped with new furnishings since our last stay.  The hotel has interior hallways and is away from any freeway noise.  The whirlpool room that we get has the best Jacuzzi in the area (great jets, right size and good water flow).  The staff is very attentive and friendly.  We have stayed there multiple times over the last several years and highly recommend it.  Also, some good restaurants and an Aldi right next door it you forget anything.More</t>
   </si>
   <si>
-    <t>Jon_The_Handyman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r450547154-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -628,9 +844,6 @@
     <t>The place was fine as far as the amenities go . Definitely looked like it could use a little love in the upkeep but fine for the money. The breakfast was good and included eggs and sausage each day along with juices and a waffle maker, cereals and assorted breads.We had the distinct feeling my wife's luggage had been gone through by the room service maid but we had taken anything of value and meds with us. I thought it was important to say something to the management but my wife didn't want anyone to lose a job so I figured I would mention it here for others to just be smart going forward.I'd still stay again but I would use the in-room safes if I had anything I was concerned about left behind while I was out.More</t>
   </si>
   <si>
-    <t>Thomas K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r418419597-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -652,7 +865,43 @@
     <t>We bought a house in town. We had to stay for 4 nights. We knew nothing about any of the hotels in the area. We usually like Quality Inns and Suites. This one however was nicer and friendlier then any we have stayed at. The room was clean, plenty of outlets for all our charging needs. big t.v, refrigerator was bigger then the mini ones you see. 24 hr. coffee in the lobby and coffee maker in the room. shower worked great. They have laundry room as well. The staff was wonderful! Sooo helpful for us trying to find carpet cleaners and stuff for the new house. And they actually care. next day they even asked if we found everything we needed. I recommend this hotel to anyone who wants to be able to relax in comfort with a staff that aims to please. thank you Quality Inn!More</t>
   </si>
   <si>
-    <t>trima67030</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r414574870-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>414574870</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Room was clean. Sheets were clean. Plenty of pillows. Nice ones, not those flat cheap ones. Plenty of hot water. Standard breakfast buffet.  Be sure to get a room on the first floor because there is NO  elevator, hence the four out of five rating. MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was clean. Sheets were clean. Plenty of pillows. Nice ones, not those flat cheap ones. Plenty of hot water. Standard breakfast buffet.  Be sure to get a room on the first floor because there is NO  elevator, hence the four out of five rating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r413418094-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>413418094</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Pets stay free, indoor corridors,  outdoor pool, reasonably priced</t>
+  </si>
+  <si>
+    <t>Lowest price I found in Granbury.  Pets stay free, outdoor pool, and free breakfast. Room was clean other than stains on the carpet. Would stay again. If your dog barks though I would choose a different hotel. My dog is an 11 year old 10 lb Doxie.  He is my baby and spoiled. He barks when he sees me or when he wants something. In other words he is verbal. I had to use his muzzle the last 2 days because of a complaint the first day.  So if your dog is verbal I would choose a different hotel. Maybe one that is less busy or opens to outdoor corridors.    MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Lowest price I found in Granbury.  Pets stay free, outdoor pool, and free breakfast. Room was clean other than stains on the carpet. Would stay again. If your dog barks though I would choose a different hotel. My dog is an 11 year old 10 lb Doxie.  He is my baby and spoiled. He barks when he sees me or when he wants something. In other words he is verbal. I had to use his muzzle the last 2 days because of a complaint the first day.  So if your dog is verbal I would choose a different hotel. Maybe one that is less busy or opens to outdoor corridors.    More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r400635275-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -670,15 +919,9 @@
     <t>The room smelled and felt dirty. They had painted one wall of the room green but got paint on outlet covers and the carpet! Not very professionally done. You can tell they are starting upgrades but just pieces at a time. Food area was small and not much food.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>The room smelled and felt dirty. They had painted one wall of the room green but got paint on outlet covers and the carpet! Not very professionally done. You can tell they are starting upgrades but just pieces at a time. Food area was small and not much food.More</t>
   </si>
   <si>
-    <t>heidi779704</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r397751245-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -700,9 +943,6 @@
     <t>We wanted a room in town so we wouldn't have to drive back to Arlington after the wine walk. It was comfy and clean, we slept well with no problems!Breakfast had a good variety of fruits so that was good! I would stay and recommend if.Safe and quiet area but NOT walking distance to downtown which was a disappointment!More</t>
   </si>
   <si>
-    <t>Christina J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r396037989-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -724,7 +964,43 @@
     <t>One of the most accessible hotels in Granbury.  And reasonably priced. The staff have always been wonderful each time I have stayed there. And the accessible rooms are located right next to the lobby and breakfast area. They still haven't fixed the entry yet though.  It has a ramp and then a steep small incline as you get to the double doors. Makes it a little difficult to get in if you are in a wheelchair.More</t>
   </si>
   <si>
-    <t>Leslie H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r390110968-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>390110968</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Just passing thru</t>
+  </si>
+  <si>
+    <t>It was a OK stay BUT! carpet was not vaccum, pet hair everywhere, it smell a lot like dog in my room..pool was horrible, cup foam everywhere, water was muggie...won't book another stay there. The only thing I like was the free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a OK stay BUT! carpet was not vaccum, pet hair everywhere, it smell a lot like dog in my room..pool was horrible, cup foam everywhere, water was muggie...won't book another stay there. The only thing I like was the free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r386649250-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>386649250</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Nice place for the money</t>
+  </si>
+  <si>
+    <t>This hotel has large rooms. They are clean and the staff is friendly. We had 3 rooms for 2 nights while we were on a family weekend. Breakfast was good. The only downside is that there is no elevator. They did change one of our rooms to the bottom floor after a request. The swimming pool is outside but completely shaded by the building in the afternoon.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>This hotel has large rooms. They are clean and the staff is friendly. We had 3 rooms for 2 nights while we were on a family weekend. Breakfast was good. The only downside is that there is no elevator. They did change one of our rooms to the bottom floor after a request. The swimming pool is outside but completely shaded by the building in the afternoon.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r378467038-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -748,9 +1024,6 @@
     <t>The room was clean, good a/c. There were a few small items that could have been fixed like a piece of tub damage, a wall plug without a cover plate, a stained wash cloth.  What bothered us most was that the staff wasnt very professional. One front desk attendent had no teeth, smelled like smoke, &amp; said one curse word. Another also had to make the breakfast while attending the front desk . Another worker didnt bother to clean tables and food areas that needed a little attention. I would never deny children food, however, workers' children should be in a staff room not out in the public. They were well mannered children but they shouldnt have been sitting around with the public. Our room wasnt ready when we arrived though we arrived after check-in.  The hallway smelled strange. The definition of a "suite" turned out there to be a very small room. None of these annoyances in and of themselves were bad but as a whole added up to an unprofessioanlly run hotel.  We don't plan on staying at this hotel in the future.More</t>
   </si>
   <si>
-    <t>calgontakemeaway2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r371458041-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -769,9 +1042,6 @@
     <t>My husband travels a lot for work. So finding a hotel, where the staff make up for any petty little thing that someone may nitpick about, is so much more important to me than looking for THE PERFECT place. We've stayed in many hotels over the years. But the management here, as well as the folks at the front desk, and even the housekeeping staff, go out of their way to help anytime we've needed it. They greet us by name and chit chat when things are slow. And if the toilet happens to need the attention of the maintenance man, or they don't have the milk out because you just missed breakfast, they're eager to help when we are in need. Thank you for always welcoming up back and going out of your way to make us feel as close to home as you can. More</t>
   </si>
   <si>
-    <t>Timothy H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r358183287-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -793,7 +1063,40 @@
     <t>I stayed 3 nights here and was happy with the value for the quality.  The breakfasts are very good with hot items and lots of choice.  The beds are comfortable and I slept well.  The room was not as clean as I liked, but not grossly dirty either.  Carpets needed better vacuuming and there was a mild vinegar spell, probably from cleaning.  Also there was a stain on the couch and the bathtub could use some better cleaning as well.  The rooms are spacious and have a fridge, microwave, and adequate electrical outlets.  The desk staff was very friendly and helpful. You might not know it unless you see the sign by the common computer, but there is a free use of the YMCA across the street if you are staying here.  That makes it one of the best fitness center options  at a hotel.  WiFi was very good.  I was on the bottom floor and the noise from the room above was distracting at times.  The second story floors are not very thick or insulated.More</t>
   </si>
   <si>
-    <t>daderic888</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r345409108-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>345409108</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Anniversary stay for four nights</t>
+  </si>
+  <si>
+    <t>Exceptional value, outstanding staff and very nice rooms.  Stayed here last November and decided to come back for our anniversary.  We got a room with a whirlpool tub which was a very nice size and well decorated with all of the items you would expect (comfortable chair, computer desk, frig and microwave).  Interior hallways allow a view from our window which helps make the room very relaxing.  You will not find a better hotel for the price in this area of North Texas.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r329610646-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>329610646</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Great place for family's with kids and pets.</t>
+  </si>
+  <si>
+    <t>Awesome staff, made sure we all of family, total of 13 people and 2 dogs, had everything we needed each day and through out day. Their breakfast is fabulous, eggs, sausage, biscuits and gravy, waffles etc. Rooms were clean, comfortable and we all felt very safe in the Inn. Will definitely stay again and have more friends and family's stay here. Special Thank You To Nacona who was a fantastic help getting all of our family's rooms together. she went above and beyond. Thank you to all of the staff. .</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r327960802-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -817,9 +1120,6 @@
     <t>Coming all the way from Down Under to stay in this very well kept, friendly and very comfortable hotel just off the main road going through Granbury in Texas.The reception in the main foyer (or lobby as it's known Stateside) was pretty welcoming for about 12:00-1:00am local time.The room was pretty well done up and comfortable and quiet.Breakfast was well supplied and delicious.Every time we stepped out and came back, the staff would always say "Hi y'all."And also, I don't know his name, this bloke who is also a staff member, always talked with us always with a smile on his face.We were becoming accustomed with the local accent while they were interested in my Aussie accent (mate).We spent 3 nights there.Upon checking out, they were sorry to see us go.We really enjoyed our stay there and I highly recommend the Quality Inn Suites to anyone.Oh, a heads up (if it hasn't already happened), they were telling me that they were going to carry out renovating the hotel.I'm really interested in how it would look now and I hope the guy is still there.More</t>
   </si>
   <si>
-    <t>Ryan A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r319654849-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -838,9 +1138,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Thomas B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r308797521-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -859,7 +1156,34 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>TexasSarge</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r301135262-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>301135262</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>a GREAT experience</t>
+  </si>
+  <si>
+    <t>Their major renovation didn't affect us at all. The public areas were very clean, from the front door to our room. Our room was clean, spacious and had everything we need. The staff was very helpful and pleasant.  Plus, great gamer wifi speeds AND they keep FRESH HOT coffee going 24hrs... what more could you ask for?!We highly recommend this hotel for 18-wheeler trucks,  too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r297003975-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>297003975</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a good experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms had a musky smell that was unpleasant. Our first room had only hot water in the shower, very hot water. That was nicely taken care of we were given a new room, but in the new bathroom, there was mildew all around the tub.  If I'm in Granbury again I would choose another hotel. However, it was a good price </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r294524047-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -883,9 +1207,6 @@
     <t>We stayed there in July when the outside temp was at 100 degrees. The room air conditioner was always cold. They are painting and remodeling, but the room we were in was clean and comfortable. The staff was very friendly and helpful. The pool was small, but felt very good in the evening.With the key card, you could also visit the YMCA across the street, and use their pool and fitness center at no charge.The breakfast was very good, with scrambled eggs, sausage, waffles, fruit yogurt, rolls, muffins, juice, milk and coffee. The motel also allows pets. We had our small dog with us, and arranged to have her with us while they cleaned the room.Would stay here again.More</t>
   </si>
   <si>
-    <t>dawnbT7548OO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r288908617-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -901,9 +1222,6 @@
     <t>Newly renovated and updated rooms. Stayed two different nights; in two different rooms, one double on second floor (they do not have an elevator but staff offered to carry luggage) and handicapped room on first floor. Breakfast was adequate. Superb, helpful staff.</t>
   </si>
   <si>
-    <t>Michael M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r286915902-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -919,7 +1237,40 @@
     <t>We were working in Granbury for the Old fashioned 4th of July and we stayed at the Quality in the price was great and the beds comfortable, breakfast was marginal but the Eggs were fresh and good along with the coffee.  The hotel could use some updating and I would have been nice not to have to go get fresh towels but like I said for the price it was good. I wish they could have a more thorough crew but the front desk GIRLS were awesome. We were able to walk right out the front door and watch the awesome fireworks, so that was good.</t>
   </si>
   <si>
-    <t>jditmore15</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r279821441-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>279821441</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Horrible!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walls upstairs had mildew on them in the halls. Room was clean but never could get cooled off even with ac going full blast for 13 hours. No water pressure.  Service was acceptable,  but the building is falling to pieces. </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r278162714-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>278162714</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Really...</t>
+  </si>
+  <si>
+    <t>Currently staying two nights in this terribly dated hotel. After reading all the postive reviews I was excited to get a great rate for a room. Should have spent more and stayed somewhere else. They have no elevator. How does a place have no elevator and if you don't you should have to carry up the luggage. The room is very hot and doesn't have a great smell. Might as well be in a smoking room because that's what the whole place smells like. The bed is very very firm and uncomfortable. Just read this and don't waste your money at this place. Spend the extra and stay in a place that doesn't smell and has an elevator. MoreShow less</t>
+  </si>
+  <si>
+    <t>Currently staying two nights in this terribly dated hotel. After reading all the postive reviews I was excited to get a great rate for a room. Should have spent more and stayed somewhere else. They have no elevator. How does a place have no elevator and if you don't you should have to carry up the luggage. The room is very hot and doesn't have a great smell. Might as well be in a smoking room because that's what the whole place smells like. The bed is very very firm and uncomfortable. Just read this and don't waste your money at this place. Spend the extra and stay in a place that doesn't smell and has an elevator. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r263444727-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -940,9 +1291,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>dRicheyJune2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r258945548-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -958,9 +1306,6 @@
     <t>Stayed here due to snow and having to be back at work the next day in Granbury. I was impressed with this hotel and the price they gave  me. Good breakfast. Had a hospice patient I was staying with and it was very important to get back there the next day! Thanks for providing me a nice place at a very reasonable price !</t>
   </si>
   <si>
-    <t>Amy-Stephen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r258383946-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -976,7 +1321,37 @@
     <t>We stayed here for a short anniversary trip. Great hospitality and super friendly staff. Moved us to a room that has a huge jacuzzi in the room! Great surprise! Very clean and basic. Everything we needed and nothing we didn't.</t>
   </si>
   <si>
-    <t>Brenda J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r251972867-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>251972867</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>10 out of 5 stars!!</t>
+  </si>
+  <si>
+    <t>Had a weekend get away planned for my mother and me. Started out alright but mother wasn't feeling well so wanted to check in early. Check in time was originally 3, they moved it to 1 for me. Then we just showed up at 11:30. Hoping maybe we could get our room even earlier.  Well I am absolutely more than pleased with Gaye and her friendly hospitality. She is a wonderful person and made it possible for my mother to feel better and get some rest.I recommend this hotel any day. I will always stay here when I come to Granbury. I am sure I will be a regular as I may be looking into buying some property here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a weekend get away planned for my mother and me. Started out alright but mother wasn't feeling well so wanted to check in early. Check in time was originally 3, they moved it to 1 for me. Then we just showed up at 11:30. Hoping maybe we could get our room even earlier.  Well I am absolutely more than pleased with Gaye and her friendly hospitality. She is a wonderful person and made it possible for my mother to feel better and get some rest.I recommend this hotel any day. I will always stay here when I come to Granbury. I am sure I will be a regular as I may be looking into buying some property here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r251067196-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>251067196</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Fantastic hospitality</t>
+  </si>
+  <si>
+    <t>Very hospitable staff makes the stay experience very pleasurable, be sure you get up for breakfast by Gaye, she makes it the best. Very clean rooms and welcoming environment, also very easy to acces and find the location</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r248134316-Quality_Inn_Suites-Granbury_Texas.html</t>
@@ -994,9 +1369,6 @@
     <t>The staff was friendly and hard working.  The room smelled very strongly of bleach (so much so that I was nauseated and had a headache in the middle of the night). Our room wasn't serviced the first day (but to be honest, we didn't leave it until 4pm).  The heater was not controllable since the knobs turned round and round. The bed was comfortable. Breakfast was pretty good although they ran out of plates and waffle batter. On leaving the room the last time the handle came off in my hand. At this point, it was comical.</t>
   </si>
   <si>
-    <t>Lori T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r243478976-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1024,9 +1396,6 @@
     <t>I have stayed at this hotel twice now.  Both times the staff was friendly and very helpful.  Our room was very clean and well stocked.  The pool and fountain are very clean and relaxing.  Breakfast in the morning was hot and fresh!More</t>
   </si>
   <si>
-    <t>Desiree K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r243183739-Quality_Inn_Suites-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1418,33 @@
   </si>
   <si>
     <t>I Brought my high school basketball team to stay during a tournament.  Nice comfortable place to stay with really good free breakfast. There is a YMCA right across the street with a pool that can be used by hotel guests.  Hospitality was great! No complaints from me or any of my team!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d223637-r239684025-Quality_Inn_Suites-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>239684025</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Convenient, Quiet, Comfortable</t>
+  </si>
+  <si>
+    <t>I spent 4 nights at the Quality Inn/Granbury last week and had a very good experience, overall.  There was a lot of maintenance activity and clean-up underway, apparently undertaken by new ownership/management.  My King Suite room was spacious, clean, fresh and quiet.  The king bed was fine.  Room rate was great.  Staff was pleasant and very enthused about the new owners.  I'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>QualityInnGranbury, Manager at Quality Inn &amp; Suites, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>I spent 4 nights at the Quality Inn/Granbury last week and had a very good experience, overall.  There was a lot of maintenance activity and clean-up underway, apparently undertaken by new ownership/management.  My King Suite room was spacious, clean, fresh and quiet.  The king bed was fine.  Room rate was great.  Staff was pleasant and very enthused about the new owners.  I'll be back.More</t>
   </si>
 </sst>
 </file>
@@ -1553,112 +1949,110 @@
       <c r="A2" t="n">
         <v>39754</v>
       </c>
-      <c r="B2" t="n">
-        <v>173918</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39754</v>
       </c>
-      <c r="B3" t="n">
-        <v>4166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1670,60 +2064,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39754</v>
       </c>
-      <c r="B4" t="n">
-        <v>70507</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1735,60 +2125,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39754</v>
       </c>
-      <c r="B5" t="n">
-        <v>173919</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1800,60 +2186,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39754</v>
       </c>
-      <c r="B6" t="n">
-        <v>173920</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1865,79 +2247,71 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39754</v>
       </c>
-      <c r="B7" t="n">
-        <v>173921</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
         <v>95</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>97</v>
       </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
-      </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
         <v>100</v>
@@ -1947,112 +2321,108 @@
       <c r="A8" t="n">
         <v>39754</v>
       </c>
-      <c r="B8" t="n">
-        <v>619</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39754</v>
       </c>
-      <c r="B9" t="n">
-        <v>173922</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>112</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>113</v>
       </c>
-      <c r="K9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" t="s">
-        <v>115</v>
-      </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2064,60 +2434,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="X9" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39754</v>
       </c>
-      <c r="B10" t="n">
-        <v>173923</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2129,60 +2495,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39754</v>
       </c>
-      <c r="B11" t="n">
-        <v>173924</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2194,67 +2556,63 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39754</v>
       </c>
-      <c r="B12" t="n">
-        <v>173925</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2263,129 +2621,117 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="X12" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="Y12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39754</v>
       </c>
-      <c r="B13" t="n">
-        <v>1040</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39754</v>
       </c>
-      <c r="B14" t="n">
-        <v>507</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2397,405 +2743,365 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39754</v>
       </c>
-      <c r="B15" t="n">
-        <v>173926</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39754</v>
       </c>
-      <c r="B16" t="n">
-        <v>173927</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="X16" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="Y16" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39754</v>
       </c>
-      <c r="B17" t="n">
-        <v>6532</v>
-      </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="X17" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39754</v>
       </c>
-      <c r="B18" t="n">
-        <v>173928</v>
-      </c>
-      <c r="C18" t="s">
-        <v>192</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39754</v>
       </c>
-      <c r="B19" t="n">
-        <v>7184</v>
-      </c>
-      <c r="C19" t="s">
-        <v>200</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39754</v>
       </c>
-      <c r="B20" t="n">
-        <v>173929</v>
-      </c>
-      <c r="C20" t="s">
-        <v>208</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2807,190 +3113,186 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="X20" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="Y20" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39754</v>
       </c>
-      <c r="B21" t="n">
-        <v>173930</v>
-      </c>
-      <c r="C21" t="s">
-        <v>216</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="X21" t="s">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="Y21" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39754</v>
       </c>
-      <c r="B22" t="n">
-        <v>38759</v>
-      </c>
-      <c r="C22" t="s">
-        <v>224</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
-        <v>92</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="X22" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="Y22" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39754</v>
       </c>
-      <c r="B23" t="n">
-        <v>19398</v>
-      </c>
-      <c r="C23" t="s">
-        <v>232</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3001,54 +3303,58 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
       <c r="Y23" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39754</v>
       </c>
-      <c r="B24" t="n">
-        <v>173931</v>
-      </c>
-      <c r="C24" t="s">
-        <v>240</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
@@ -3058,387 +3364,385 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>212</v>
+      </c>
+      <c r="X24" t="s">
+        <v>213</v>
+      </c>
       <c r="Y24" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39754</v>
       </c>
-      <c r="B25" t="n">
-        <v>20777</v>
-      </c>
-      <c r="C25" t="s">
-        <v>247</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>227</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
       <c r="Y25" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39754</v>
       </c>
-      <c r="B26" t="n">
-        <v>173932</v>
-      </c>
-      <c r="C26" t="s">
-        <v>255</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>235</v>
+      </c>
+      <c r="X26" t="s">
+        <v>236</v>
+      </c>
       <c r="Y26" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39754</v>
       </c>
-      <c r="B27" t="n">
-        <v>47883</v>
-      </c>
-      <c r="C27" t="s">
-        <v>263</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>243</v>
+      </c>
+      <c r="O27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
         <v>3</v>
       </c>
-      <c r="N27" t="s">
-        <v>269</v>
-      </c>
-      <c r="O27" t="s">
-        <v>83</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>80</v>
+      </c>
+      <c r="X27" t="s">
+        <v>81</v>
+      </c>
       <c r="Y27" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39754</v>
       </c>
-      <c r="B28" t="n">
-        <v>2253</v>
-      </c>
-      <c r="C28" t="s">
-        <v>270</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s">
+        <v>81</v>
+      </c>
       <c r="Y28" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39754</v>
       </c>
-      <c r="B29" t="n">
-        <v>173933</v>
-      </c>
-      <c r="C29" t="s">
-        <v>277</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>80</v>
+      </c>
+      <c r="X29" t="s">
+        <v>81</v>
+      </c>
       <c r="Y29" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39754</v>
       </c>
-      <c r="B30" t="n">
-        <v>173934</v>
-      </c>
-      <c r="C30" t="s">
-        <v>285</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>108</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3446,185 +3750,183 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>80</v>
+      </c>
+      <c r="X30" t="s">
+        <v>81</v>
+      </c>
       <c r="Y30" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39754</v>
       </c>
-      <c r="B31" t="n">
-        <v>3657</v>
-      </c>
-      <c r="C31" t="s">
-        <v>291</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>80</v>
+      </c>
+      <c r="X31" t="s">
+        <v>81</v>
+      </c>
       <c r="Y31" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39754</v>
       </c>
-      <c r="B32" t="n">
-        <v>173935</v>
-      </c>
-      <c r="C32" t="s">
-        <v>297</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>80</v>
+      </c>
+      <c r="X32" t="s">
+        <v>81</v>
+      </c>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39754</v>
       </c>
-      <c r="B33" t="n">
-        <v>173936</v>
-      </c>
-      <c r="C33" t="s">
-        <v>304</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="O33" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3635,57 +3937,57 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>80</v>
+      </c>
+      <c r="X33" t="s">
+        <v>81</v>
+      </c>
       <c r="Y33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39754</v>
       </c>
-      <c r="B34" t="n">
-        <v>173937</v>
-      </c>
-      <c r="C34" t="s">
-        <v>310</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3696,193 +3998,179 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>80</v>
+      </c>
+      <c r="X34" t="s">
+        <v>81</v>
+      </c>
       <c r="Y34" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39754</v>
       </c>
-      <c r="B35" t="n">
-        <v>173938</v>
-      </c>
-      <c r="C35" t="s">
-        <v>316</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="J35" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>3</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>80</v>
+      </c>
+      <c r="X35" t="s">
+        <v>81</v>
+      </c>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39754</v>
       </c>
-      <c r="B36" t="n">
-        <v>9001</v>
-      </c>
-      <c r="C36" t="s">
-        <v>322</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="J36" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="O36" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39754</v>
       </c>
-      <c r="B37" t="n">
-        <v>173939</v>
-      </c>
-      <c r="C37" t="s">
-        <v>332</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="J37" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="K37" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="O37" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3894,13 +4182,1579 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
+        <v>80</v>
+      </c>
+      <c r="X37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>312</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>313</v>
+      </c>
+      <c r="J38" t="s">
+        <v>314</v>
+      </c>
+      <c r="K38" t="s">
+        <v>315</v>
+      </c>
+      <c r="L38" t="s">
+        <v>316</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>310</v>
+      </c>
+      <c r="O38" t="s">
+        <v>119</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>80</v>
+      </c>
+      <c r="X38" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>318</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39" t="s">
+        <v>320</v>
+      </c>
+      <c r="K39" t="s">
+        <v>321</v>
+      </c>
+      <c r="L39" t="s">
+        <v>322</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>323</v>
+      </c>
+      <c r="O39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>80</v>
+      </c>
+      <c r="X39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s">
+        <v>329</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>137</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
         <v>338</v>
       </c>
-      <c r="X37" t="s">
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
         <v>339</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="J42" t="s">
         <v>340</v>
+      </c>
+      <c r="K42" t="s">
+        <v>341</v>
+      </c>
+      <c r="L42" t="s">
+        <v>342</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>343</v>
+      </c>
+      <c r="O42" t="s">
+        <v>158</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>345</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" t="s">
+        <v>347</v>
+      </c>
+      <c r="K43" t="s">
+        <v>348</v>
+      </c>
+      <c r="L43" t="s">
+        <v>349</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>350</v>
+      </c>
+      <c r="O43" t="s">
+        <v>137</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>352</v>
+      </c>
+      <c r="J44" t="s">
+        <v>353</v>
+      </c>
+      <c r="K44" t="s">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s">
+        <v>355</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>356</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s">
+        <v>361</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>362</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>364</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>365</v>
+      </c>
+      <c r="J46" t="s">
+        <v>366</v>
+      </c>
+      <c r="K46" t="s">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s">
+        <v>368</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>369</v>
+      </c>
+      <c r="O46" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>371</v>
+      </c>
+      <c r="J47" t="s">
+        <v>372</v>
+      </c>
+      <c r="K47" t="s">
+        <v>373</v>
+      </c>
+      <c r="L47" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>375</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>376</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>377</v>
+      </c>
+      <c r="J48" t="s">
+        <v>378</v>
+      </c>
+      <c r="K48" t="s">
+        <v>379</v>
+      </c>
+      <c r="L48" t="s">
+        <v>380</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>375</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>382</v>
+      </c>
+      <c r="J49" t="s">
+        <v>383</v>
+      </c>
+      <c r="K49" t="s">
+        <v>384</v>
+      </c>
+      <c r="L49" t="s">
+        <v>385</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>375</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>386</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>387</v>
+      </c>
+      <c r="J50" t="s">
+        <v>388</v>
+      </c>
+      <c r="K50" t="s">
+        <v>389</v>
+      </c>
+      <c r="L50" t="s">
+        <v>390</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>391</v>
+      </c>
+      <c r="O50" t="s">
+        <v>137</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>393</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>394</v>
+      </c>
+      <c r="J51" t="s">
+        <v>395</v>
+      </c>
+      <c r="K51" t="s">
+        <v>396</v>
+      </c>
+      <c r="L51" t="s">
+        <v>397</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>391</v>
+      </c>
+      <c r="O51" t="s">
+        <v>137</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>398</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>399</v>
+      </c>
+      <c r="J52" t="s">
+        <v>400</v>
+      </c>
+      <c r="K52" t="s">
+        <v>401</v>
+      </c>
+      <c r="L52" t="s">
+        <v>402</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>391</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>403</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>404</v>
+      </c>
+      <c r="J53" t="s">
+        <v>405</v>
+      </c>
+      <c r="K53" t="s">
+        <v>406</v>
+      </c>
+      <c r="L53" t="s">
+        <v>407</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>408</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>409</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>410</v>
+      </c>
+      <c r="J54" t="s">
+        <v>411</v>
+      </c>
+      <c r="K54" t="s">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s">
+        <v>413</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>408</v>
+      </c>
+      <c r="O54" t="s">
+        <v>119</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>415</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>416</v>
+      </c>
+      <c r="J55" t="s">
+        <v>417</v>
+      </c>
+      <c r="K55" t="s">
+        <v>418</v>
+      </c>
+      <c r="L55" t="s">
+        <v>419</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>420</v>
+      </c>
+      <c r="O55" t="s">
+        <v>137</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>421</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>422</v>
+      </c>
+      <c r="J56" t="s">
+        <v>423</v>
+      </c>
+      <c r="K56" t="s">
+        <v>424</v>
+      </c>
+      <c r="L56" t="s">
+        <v>425</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>420</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>426</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>427</v>
+      </c>
+      <c r="J57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K57" t="s">
+        <v>429</v>
+      </c>
+      <c r="L57" t="s">
+        <v>430</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>420</v>
+      </c>
+      <c r="O57" t="s">
+        <v>137</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>431</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>432</v>
+      </c>
+      <c r="J58" t="s">
+        <v>433</v>
+      </c>
+      <c r="K58" t="s">
+        <v>434</v>
+      </c>
+      <c r="L58" t="s">
+        <v>435</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>362</v>
+      </c>
+      <c r="O58" t="s">
+        <v>119</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>437</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>438</v>
+      </c>
+      <c r="J59" t="s">
+        <v>439</v>
+      </c>
+      <c r="K59" t="s">
+        <v>440</v>
+      </c>
+      <c r="L59" t="s">
+        <v>441</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>442</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>443</v>
+      </c>
+      <c r="J60" t="s">
+        <v>444</v>
+      </c>
+      <c r="K60" t="s">
+        <v>445</v>
+      </c>
+      <c r="L60" t="s">
+        <v>446</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>362</v>
+      </c>
+      <c r="O60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>447</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>448</v>
+      </c>
+      <c r="J61" t="s">
+        <v>449</v>
+      </c>
+      <c r="K61" t="s">
+        <v>450</v>
+      </c>
+      <c r="L61" t="s">
+        <v>451</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>452</v>
+      </c>
+      <c r="O61" t="s">
+        <v>137</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>453</v>
+      </c>
+      <c r="X61" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>456</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>457</v>
+      </c>
+      <c r="J62" t="s">
+        <v>458</v>
+      </c>
+      <c r="K62" t="s">
+        <v>459</v>
+      </c>
+      <c r="L62" t="s">
+        <v>460</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>461</v>
+      </c>
+      <c r="X62" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39754</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>464</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>465</v>
+      </c>
+      <c r="J63" t="s">
+        <v>466</v>
+      </c>
+      <c r="K63" t="s">
+        <v>467</v>
+      </c>
+      <c r="L63" t="s">
+        <v>468</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>469</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>470</v>
+      </c>
+      <c r="X63" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
